--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3259.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3259.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.479274124614999</v>
+        <v>3.388527154922485</v>
       </c>
       <c r="B1">
-        <v>1.691634151466423</v>
+        <v>2.551299571990967</v>
       </c>
       <c r="C1">
-        <v>2.116426268138058</v>
+        <v>1.954998970031738</v>
       </c>
       <c r="D1">
-        <v>4.282771801907856</v>
+        <v>1.751769304275513</v>
       </c>
       <c r="E1">
-        <v>3.130587444441411</v>
+        <v>1.57250702381134</v>
       </c>
     </row>
   </sheetData>
